--- a/Descargas/R15_13º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Noviembre.xlsx
+++ b/Descargas/R15_13º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Noviembre.xlsx
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="B58" s="65">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B59" s="65">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60">
